--- a/xlsx/华尔街_intext.xlsx
+++ b/xlsx/华尔街_intext.xlsx
@@ -20,1684 +20,1684 @@
     <t>华尔街</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%88%BE%E8%A1%97</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
+  </si>
+  <si>
+    <t>地理坐标</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_华尔街</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%88%BE%E8%A1%97_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
+  </si>
+  <si>
+    <t>华尔街 (消歧义)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
+  </si>
+  <si>
+    <t>纽约市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A0%93</t>
+  </si>
+  <si>
+    <t>曼哈顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E8%80%81%E5%8C%AF</t>
+  </si>
+  <si>
+    <t>百老汇</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%B8%80%E6%95%99%E5%A0%82_(%E7%BA%BD%E7%BA%A6)</t>
+  </si>
+  <si>
+    <t>三一教堂 (纽约)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%A1%97_(%E6%9B%BC%E5%93%88%E9%A1%BF)</t>
+  </si>
+  <si>
+    <t>南街 (曼哈顿)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E4%B8%AD%E5%BF%83</t>
+  </si>
+  <si>
+    <t>金融中心</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>美国经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E5%B8%82%E5%A0%B4</t>
+  </si>
+  <si>
+    <t>金融市场</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E8%AD%89%E5%88%B8%E4%BA%A4%E6%98%93%E6%89%80</t>
+  </si>
+  <si>
+    <t>纽约证券交易所</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%AD%89%E5%88%B8%E4%BA%A4%E6%98%93%E6%89%80</t>
+  </si>
+  <si>
+    <t>美国证券交易所</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%95%86%E5%93%81%E6%9C%9F%E8%B2%A8%E4%BA%A4%E6%98%93%E6%89%80</t>
+  </si>
+  <si>
+    <t>纽约商品期货交易所</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/New_York_Board_of_Trade</t>
+  </si>
+  <si>
+    <t>en-New York Board of Trade</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9F%8E</t>
+  </si>
+  <si>
+    <t>中城</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E5%B3%B6_(%E7%B4%90%E7%B4%84)</t>
+  </si>
+  <si>
+    <t>长岛 (纽约)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E7%89%B9%E5%BE%B9%E6%96%AF%E7%89%B9%E9%83%A1_(%E7%B4%90%E7%B4%84%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>威斯特彻斯特郡 (纽约州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E7%88%BE%E8%8F%B2%E7%88%BE%E5%BE%B7%E7%B8%A3_(%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>费尔菲尔德县 (康乃狄克州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E6%BE%A4%E8%A5%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>纽泽西州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E4%B8%B9</t>
+  </si>
+  <si>
+    <t>阿姆斯特丹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%9C%B0%E5%AE%89%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>印地安人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
+  </si>
+  <si>
+    <t>荷兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E6%A9%9F</t>
+  </si>
+  <si>
+    <t>投机</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%A7%E6%A1%90%E6%A0%91%E5%8D%8F%E8%AE%AE</t>
+  </si>
+  <si>
+    <t>梧桐树协议</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%93%C2%B7%E7%93%8A%E6%96%AF</t>
+  </si>
+  <si>
+    <t>道·琼斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%88%BE%E8%A1%97%E6%97%A5%E5%A0%B1</t>
+  </si>
+  <si>
+    <t>华尔街日报</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%8A%E6%97%A5%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>今日美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%A4%A9%E5%A4%A7%E6%A8%93</t>
+  </si>
+  <si>
+    <t>摩天大楼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
+  </si>
+  <si>
+    <t>芝加哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%A0%B9%E5%A4%A7%E9%80%9A</t>
+  </si>
+  <si>
+    <t>摩根大通</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>无政府主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E8%AA%BF%E6%9F%A5%E5%B1%80</t>
+  </si>
+  <si>
+    <t>联邦调查局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%A4%A7%E8%95%AD%E6%A2%9D</t>
+  </si>
+  <si>
+    <t>经济大萧条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E4%B8%AD%E5%BF%83</t>
+  </si>
+  <si>
+    <t>世界贸易中心</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E4%B8%80%E4%B8%80%E6%81%90%E6%80%96%E6%94%BB%E6%93%8A%E4%BA%8B%E4%BB%B6</t>
+  </si>
+  <si>
+    <t>九一一恐怖攻击事件</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E4%B8%80%E4%B8%80%E6%81%90%E6%80%96%E8%A2%AD%E5%87%BB</t>
+  </si>
+  <si>
+    <t>九一一恐怖袭击</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93</t>
+  </si>
+  <si>
+    <t>波士顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%A1%94</t>
+  </si>
+  <si>
+    <t>自由塔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A0%E9%A2%86%E5%8D%8E%E5%B0%94%E8%A1%97</t>
+  </si>
+  <si>
+    <t>占领华尔街</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E4%BB%BD%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>股份有限公司</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>康乃狄克州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>宾夕法尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BA%BA%E7%9B%8E%E6%A0%BC%E9%AD%AF-%E6%92%92%E5%85%8B%E9%81%9C%E6%96%B0%E6%95%99%E5%BE%92</t>
+  </si>
+  <si>
+    <t>白人盎格鲁-撒克逊新教徒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%94%A2%E9%9A%8E%E7%B4%9A</t>
+  </si>
+  <si>
+    <t>中产阶级</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%BA%96%E5%82%99%E7%90%86%E4%BA%8B%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美国联邦准备理事会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E6%94%BF%E7%AD%96</t>
+  </si>
+  <si>
+    <t>货币政策</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E7%89%B9%E5%8D%80</t>
+  </si>
+  <si>
+    <t>华盛顿特区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>加利福尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>德克萨斯州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E5%85%8B%E6%96%AF%E5%A0%A1</t>
+  </si>
+  <si>
+    <t>诺克斯堡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%8D%8D%E9%87%91%E5%B9%B4%E4%BB%A3</t>
+  </si>
+  <si>
+    <t>镀金年代</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A3%9D%E9%A3%BE%E8%97%9D%E8%A1%93%E9%81%8B%E5%8B%95</t>
+  </si>
+  <si>
+    <t>装饰艺术运动</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Arturo_Di_Modica</t>
+  </si>
+  <si>
+    <t>en-Arturo Di Modica</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97%E9%93%9C%E7%89%9B</t>
+  </si>
+  <si>
+    <t>华尔街铜牛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E5%B8%82</t>
+  </si>
+  <si>
+    <t>牛市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%B2%8D%E6%9E%97%E6%A0%BC%E6%9E%97%E5%85%AC%E5%9B%AD</t>
+  </si>
+  <si>
+    <t>鲍林格林公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A7%E9%80%9A%E9%8A%80%E8%A1%8C</t>
+  </si>
+  <si>
+    <t>美国大通银行</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%87%91%E8%9E%8D%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>美国金融博物馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97%E9%8A%80%E8%A1%8C</t>
+  </si>
+  <si>
+    <t>德意志银行</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E6%97%97%E9%8A%80%E8%A1%8C</t>
+  </si>
+  <si>
+    <t>花旗银行</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD%E8%A1%97</t>
+  </si>
+  <si>
+    <t>商业街</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%B0%8F%E5%9E%8B%E4%BC%81%E6%A5%AD</t>
+  </si>
+  <si>
+    <t>中小型企业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E5%AF%8C500%E5%BC%BA</t>
+  </si>
+  <si>
+    <t>财富500强</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>精英主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93</t>
+  </si>
+  <si>
+    <t>贸易</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>资本主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%96%B0</t>
+  </si>
+  <si>
+    <t>创新</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>殖民主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E7%88%BE%E6%9B%BC%C2%B7%E6%A2%85%E7%88%BE%E7%B6%AD%E7%88%BE</t>
+  </si>
+  <si>
+    <t>赫尔曼·梅尔维尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E7%A6%8F%E5%85%8B%E7%B4%8D</t>
+  </si>
+  <si>
+    <t>威廉·福克纳</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>犹太人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1987%E5%B9%B4%E7%94%B5%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>1987年电影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97_(1987%E5%B9%B4%E7%94%B5%E5%BD%B1)</t>
+  </si>
+  <si>
+    <t>华尔街 (1987年电影)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E7%B7%9A%E4%BA%A4%E6%98%93</t>
+  </si>
+  <si>
+    <t>内线交易</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E9%9B%BB%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>2010年电影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%88%BE%E8%A1%97%EF%BC%9A%E9%87%91%E9%8C%A2%E8%90%AC%E6%AD%B2</t>
+  </si>
+  <si>
+    <t>华尔街：金钱万岁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A1%E8%B2%B8%E5%8D%B1%E6%A9%9F</t>
+  </si>
+  <si>
+    <t>次贷危机</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E8%B5%84%E9%93%B6%E8%A1%8C</t>
+  </si>
+  <si>
+    <t>投资银行</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E8%89%A6%E5%A5%87%E8%88%AA%E8%A8%98</t>
+  </si>
+  <si>
+    <t>星舰奇航记</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%91%9E%E5%90%89%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>佛瑞吉人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B5%82%E6%A5%B5%E8%AD%A6%E6%8E%A23</t>
+  </si>
+  <si>
+    <t>终极警探3</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E6%8B%89</t>
+  </si>
+  <si>
+    <t>哥斯拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2013%E5%B9%B4%E7%94%B5%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>2013年电影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97%E4%B9%8B%E7%8B%BC</t>
+  </si>
+  <si>
+    <t>华尔街之狼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%9C%B0%E9%90%B5</t>
+  </si>
+  <si>
+    <t>纽约地铁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/IRT%E7%99%BE%E8%80%81%E5%8C%AF%EF%BC%8D%E7%AC%AC%E4%B8%83%E5%A4%A7%E9%81%93%E7%B7%9A</t>
+  </si>
+  <si>
+    <t>IRT百老汇－第七大道线</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/IRT%E8%90%8A%E8%BE%9B%E9%A0%93%E5%A4%A7%E9%81%93%E7%B7%9A</t>
+  </si>
+  <si>
+    <t>IRT莱辛顿大道线</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6</t>
+  </si>
+  <si>
+    <t>伦敦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E5%B8%82</t>
+  </si>
+  <si>
+    <t>伦敦市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC</t>
+  </si>
+  <si>
+    <t>东京</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
+  </si>
+  <si>
+    <t>香港</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%92%B0</t>
+  </si>
+  <si>
+    <t>中环</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>中华人民共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
+  </si>
+  <si>
+    <t>新加坡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%95%99%E8%82%B2%E5%9F%8E</t>
+  </si>
+  <si>
+    <t>香港教育城</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%B4%90%E7%B4%84%E5%B8%82%E5%B8%82%E5%8D%80%E4%B8%BB%E8%A6%81%E5%A4%A7%E9%81%93</t>
+  </si>
+  <si>
+    <t>Template talk-纽约市市区主要大道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%8D%81%E5%A4%A7%E9%81%93</t>
+  </si>
+  <si>
+    <t>第十大道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B9%9D%E5%A4%A7%E9%81%93</t>
+  </si>
+  <si>
+    <t>第九大道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%85%AB%E5%A4%A7%E9%81%93_(%E6%9B%BC%E5%93%88%E9%A1%BF)</t>
+  </si>
+  <si>
+    <t>第八大道 (曼哈顿)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%83%E5%A4%A7%E9%81%93</t>
+  </si>
+  <si>
+    <t>第七大道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%A0%B1%E5%BB%A3%E5%A0%B4</t>
+  </si>
+  <si>
+    <t>时报广场</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%85%AD%E5%A4%A7%E9%81%93</t>
+  </si>
+  <si>
+    <t>第六大道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%94%E5%A4%A7%E9%81%93</t>
+  </si>
+  <si>
+    <t>第五大道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E8%BF%AA%E9%81%9C%E5%A4%A7%E9%81%93</t>
+  </si>
+  <si>
+    <t>麦迪逊大道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%9B%AD%E5%A4%A7%E9%81%93</t>
+  </si>
+  <si>
+    <t>公园大道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E8%BE%9B%E9%A1%BF%E5%A4%A7%E9%81%93</t>
+  </si>
+  <si>
+    <t>莱辛顿大道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%A4%A7%E9%81%93</t>
+  </si>
+  <si>
+    <t>第三大道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E5%A4%A7%E9%81%93</t>
+  </si>
+  <si>
+    <t>第二大道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E5%A4%A7%E9%81%93</t>
+  </si>
+  <si>
+    <t>第一大道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A1%BF%E4%B8%8B%E5%9F%8E</t>
+  </si>
+  <si>
+    <t>曼哈顿下城</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E7%99%BE%E8%80%81%E6%B1%87%E5%A4%A7%E8%A1%97</t>
+  </si>
+  <si>
+    <t>东百老汇大街</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/14%E8%A1%97</t>
+  </si>
+  <si>
+    <t>14街</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/23%E8%A1%97_(%E6%9B%BC%E5%93%88%E9%A0%93)</t>
+  </si>
+  <si>
+    <t>23街 (曼哈顿)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/34%E8%A1%97</t>
+  </si>
+  <si>
+    <t>34街</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/42%E8%A1%97_(%E6%9B%BC%E5%93%88%E9%A0%93)</t>
+  </si>
+  <si>
+    <t>42街 (曼哈顿)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC52%E8%A1%97_(%E6%9B%BC%E5%93%88%E9%A1%BF)</t>
+  </si>
+  <si>
+    <t>第52街 (曼哈顿)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/59%E8%A1%97</t>
+  </si>
+  <si>
+    <t>59街</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A1%BF%E4%B8%8A%E5%9F%8E</t>
+  </si>
+  <si>
+    <t>曼哈顿上城</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/72%E8%A1%97</t>
+  </si>
+  <si>
+    <t>72街</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/110%E8%A1%97</t>
+  </si>
+  <si>
+    <t>110街</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>美国历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国历史年表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>前哥伦布时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>十三殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
+  </si>
+  <si>
+    <t>美国独立宣言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>美国革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
+  </si>
+  <si>
+    <t>美国领土变迁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
+  </si>
+  <si>
+    <t>美国内战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%87%8D%E5%BB%BA%E6%97%B6%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>美国重建时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
+  </si>
+  <si>
+    <t>大萧条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
+  </si>
+  <si>
+    <t>冷战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>朝鲜战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%B0%91%E6%9D%83%E8%BF%90%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>非裔美国人民权运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>越南战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>波斯湾战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>反恐战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
+  </si>
+  <si>
+    <t>金融海啸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
+  </si>
+  <si>
+    <t>美国人口</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%80%BA%E5%8A%A1%E4%B8%8A%E9%99%90%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>美国债务上限历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9B%E4%BA%8B</t>
+  </si>
+  <si>
+    <t>美国军事</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
+  </si>
+  <si>
+    <t>美国邮政署</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
+  </si>
+  <si>
+    <t>美国科学技术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>美国联邦政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%BE%8B</t>
+  </si>
+  <si>
+    <t>美国法律</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
+  </si>
+  <si>
+    <t>美国宪法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国权利法案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
+  </si>
+  <si>
+    <t>权力分立</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>立法机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>美国国会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国众议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国参议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>美国副总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国联邦机构列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>美国总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>美国总统办事机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
+  </si>
+  <si>
+    <t>美国内阁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E8%A1%8C%E6%94%BF%E9%83%A8%E9%97%A8</t>
+  </si>
+  <si>
+    <t>美国联邦行政部门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
+  </si>
+  <si>
+    <t>美国政府独立机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国最高法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦上诉法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E5%8C%BA%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦地区法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国司法部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E8%B0%83%E6%9F%A5%E5%B1%80</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>美国情报体系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
+  </si>
+  <si>
+    <t>国家情报总监</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
+  </si>
+  <si>
+    <t>中央情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
+  </si>
+  <si>
+    <t>国防情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家地理空间情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家侦察局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家安全局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国空军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国陆军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%99%86%E6%88%98%E9%98%9F</t>
+  </si>
+  <si>
+    <t>美国海军陆战队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国海军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%B2%B8%E8%AD%A6%E5%8D%AB%E9%98%9F</t>
+  </si>
+  <si>
+    <t>美国海岸警卫队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
+  </si>
+  <si>
+    <t>美国国民警卫队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>美国政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
+  </si>
+  <si>
+    <t>美国选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>美国选举人团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>美国行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A</t>
+  </si>
+  <si>
+    <t>美国政党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>民主党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>共和党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>第三党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>美国第51州</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
+  </si>
+  <si>
+    <t>en-Political status of Puerto Rico</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>红州与蓝州</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Purple_America</t>
+  </si>
+  <si>
+    <t>en-Purple America</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%A7%86%E5%A4%A7%E5%8F%94</t>
+  </si>
+  <si>
+    <t>山姆大叔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>美国地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%BF_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>县 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B7%B4%E6%8B%89%E5%A5%91%E4%BA%9A%E5%B1%B1%E8%84%89</t>
+  </si>
+  <si>
+    <t>阿巴拉契亚山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
+  </si>
+  <si>
+    <t>洛矶山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国国家公园列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>美国地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
+  </si>
+  <si>
+    <t>新英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>中大西洋地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国南部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国中西部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
+  </si>
+  <si>
+    <t>北美大平原</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国西北部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国西南部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国河流列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>密西西比河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>密苏里河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>科罗拉多河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
+  </si>
+  <si>
+    <t>美国州份</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%9F</t>
+  </si>
+  <si>
+    <t>美国领土</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Agriculture_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Agriculture in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
+  </si>
+  <si>
+    <t>美国梦</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
+  </si>
+  <si>
+    <t>en-United States federal budget</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>联邦储备系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美国的工会</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Social programs in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
+  </si>
+  <si>
+    <t>美国国债</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Taxation in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
+  </si>
+  <si>
+    <t>美国交通</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国机场列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
+  </si>
+  <si>
+    <t>美国国道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>州际公路系统</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Unemployment in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
+  </si>
+  <si>
+    <t>美元</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美国社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
+  </si>
+  <si>
+    <t>美国犯罪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>美国教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E4%BF%9D%E5%81%A5</t>
+  </si>
+  <si>
+    <t>美国卫生保健</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9B%91%E7%A6%81%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>美国监禁制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%AD%E8%A8%80</t>
+  </si>
+  <si>
+    <t>美国语言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8B%B1%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>美国英语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>美国的西班牙语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AA%92%E4%BD%93</t>
+  </si>
+  <si>
+    <t>美国媒体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>美国人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
+  </si>
+  <si>
+    <t>美国节日</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%97%E6%95%99</t>
+  </si>
+  <si>
+    <t>美国宗教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
+  </si>
+  <si>
+    <t>美国社会阶层</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
+  </si>
+  <si>
+    <t>美国体育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
+  </si>
+  <si>
+    <t>美国LGBT权益</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
+  </si>
+  <si>
+    <t>美国同性婚姻</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%B6%E5%BA%AD%E7%BB%93%E6%9E%84</t>
+  </si>
+  <si>
+    <t>美国家庭结构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>美国文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>美国文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%8E%B1%E5%A7%86%E6%96%87%E8%89%BA%E5%A4%8D%E5%85%B4</t>
+  </si>
+  <si>
+    <t>哈莱姆文艺复兴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%AA%8C%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>超验主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9E%AE%E6%8E%89%E7%9A%84%E4%B8%80%E4%BB%A3</t>
+  </si>
+  <si>
+    <t>垮掉的一代</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%BB%BA%E7%AD%91</t>
+  </si>
+  <si>
+    <t>美国建筑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>美国饮食文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>美国国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>美国音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E9%97%B4%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>美国民间音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%81%E8%A1%8C%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>美国流行音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E4%B9%90</t>
+  </si>
+  <si>
+    <t>爵士乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
+  </si>
+  <si>
+    <t>美国电视</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>美国电影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%8E%B1%E5%9D%9E</t>
+  </si>
+  <si>
+    <t>好莱坞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>抽象表现主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
+  </si>
+  <si>
+    <t>美国社会问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B9%B3%E6%9D%83%E8%A1%8C%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>美国平权行动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BE%8B%E5%A4%96%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>美国例外主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%BE%8E%E6%83%85%E7%BB%AA</t>
+  </si>
+  <si>
+    <t>反美情绪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>美国死刑制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>美国枪支政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
+  </si>
+  <si>
+    <t>美国枪枝暴力问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
+  </si>
+  <si>
+    <t>美国医疗改革</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
+  </si>
+  <si>
+    <t>美国人权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
+  </si>
+  <si>
+    <t>美墨边界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
+  </si>
+  <si>
+    <t>美国的肥胖问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%8D%E6%97%8F%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>美国种族主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>国立国会图书馆</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
-  </si>
-  <si>
-    <t>地理坐标</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_华尔街</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%88%BE%E8%A1%97_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
-  </si>
-  <si>
-    <t>華爾街 (消歧義)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
-  </si>
-  <si>
-    <t>紐約市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A0%93</t>
-  </si>
-  <si>
-    <t>曼哈頓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E8%80%81%E5%8C%AF</t>
-  </si>
-  <si>
-    <t>百老匯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%B8%80%E6%95%99%E5%A0%82_(%E7%BA%BD%E7%BA%A6)</t>
-  </si>
-  <si>
-    <t>三一教堂 (纽约)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%A1%97_(%E6%9B%BC%E5%93%88%E9%A1%BF)</t>
-  </si>
-  <si>
-    <t>南街 (曼哈顿)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E4%B8%AD%E5%BF%83</t>
-  </si>
-  <si>
-    <t>金融中心</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B6%93%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>美國經濟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E5%B8%82%E5%A0%B4</t>
-  </si>
-  <si>
-    <t>金融市場</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E8%AD%89%E5%88%B8%E4%BA%A4%E6%98%93%E6%89%80</t>
-  </si>
-  <si>
-    <t>紐約證券交易所</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%AD%89%E5%88%B8%E4%BA%A4%E6%98%93%E6%89%80</t>
-  </si>
-  <si>
-    <t>美國證券交易所</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%95%86%E5%93%81%E6%9C%9F%E8%B2%A8%E4%BA%A4%E6%98%93%E6%89%80</t>
-  </si>
-  <si>
-    <t>紐約商品期貨交易所</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/New_York_Board_of_Trade</t>
-  </si>
-  <si>
-    <t>en-New York Board of Trade</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9F%8E</t>
-  </si>
-  <si>
-    <t>中城</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E5%B3%B6_(%E7%B4%90%E7%B4%84)</t>
-  </si>
-  <si>
-    <t>長島 (紐約)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E7%89%B9%E5%BE%B9%E6%96%AF%E7%89%B9%E9%83%A1_(%E7%B4%90%E7%B4%84%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>威斯特徹斯特郡 (紐約州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E7%88%BE%E8%8F%B2%E7%88%BE%E5%BE%B7%E7%B8%A3_(%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>費爾菲爾德縣 (康乃狄克州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E6%BE%A4%E8%A5%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>紐澤西州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E4%B8%B9</t>
-  </si>
-  <si>
-    <t>阿姆斯特丹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%9C%B0%E5%AE%89%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>印地安人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
-  </si>
-  <si>
-    <t>荷蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E6%A9%9F</t>
-  </si>
-  <si>
-    <t>投機</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%A7%E6%A1%90%E6%A0%91%E5%8D%8F%E8%AE%AE</t>
-  </si>
-  <si>
-    <t>梧桐树协议</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%93%C2%B7%E7%93%8A%E6%96%AF</t>
-  </si>
-  <si>
-    <t>道·瓊斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%88%BE%E8%A1%97%E6%97%A5%E5%A0%B1</t>
-  </si>
-  <si>
-    <t>華爾街日報</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%8A%E6%97%A5%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>今日美國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%A4%A9%E5%A4%A7%E6%A8%93</t>
-  </si>
-  <si>
-    <t>摩天大樓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
-  </si>
-  <si>
-    <t>芝加哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%A0%B9%E5%A4%A7%E9%80%9A</t>
-  </si>
-  <si>
-    <t>摩根大通</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>無政府主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E8%AA%BF%E6%9F%A5%E5%B1%80</t>
-  </si>
-  <si>
-    <t>聯邦調查局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%A4%A7%E8%95%AD%E6%A2%9D</t>
-  </si>
-  <si>
-    <t>經濟大蕭條</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E4%B8%AD%E5%BF%83</t>
-  </si>
-  <si>
-    <t>世界貿易中心</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E4%B8%80%E4%B8%80%E6%81%90%E6%80%96%E6%94%BB%E6%93%8A%E4%BA%8B%E4%BB%B6</t>
-  </si>
-  <si>
-    <t>九一一恐怖攻擊事件</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E4%B8%80%E4%B8%80%E6%81%90%E6%80%96%E8%A2%AD%E5%87%BB</t>
-  </si>
-  <si>
-    <t>九一一恐怖袭击</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93</t>
-  </si>
-  <si>
-    <t>波士頓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%A1%94</t>
-  </si>
-  <si>
-    <t>自由塔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A0%E9%A2%86%E5%8D%8E%E5%B0%94%E8%A1%97</t>
-  </si>
-  <si>
-    <t>占领华尔街</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E4%BB%BD%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>股份有限公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>康乃狄克州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>賓夕法尼亞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BA%BA%E7%9B%8E%E6%A0%BC%E9%AD%AF-%E6%92%92%E5%85%8B%E9%81%9C%E6%96%B0%E6%95%99%E5%BE%92</t>
-  </si>
-  <si>
-    <t>白人盎格魯-撒克遜新教徒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%94%A2%E9%9A%8E%E7%B4%9A</t>
-  </si>
-  <si>
-    <t>中產階級</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%BA%96%E5%82%99%E7%90%86%E4%BA%8B%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國聯邦準備理事會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E6%94%BF%E7%AD%96</t>
-  </si>
-  <si>
-    <t>貨幣政策</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E7%89%B9%E5%8D%80</t>
-  </si>
-  <si>
-    <t>華盛頓特區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>加利福尼亞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>德克薩斯州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E5%85%8B%E6%96%AF%E5%A0%A1</t>
-  </si>
-  <si>
-    <t>諾克斯堡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%8D%8D%E9%87%91%E5%B9%B4%E4%BB%A3</t>
-  </si>
-  <si>
-    <t>鍍金年代</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A3%9D%E9%A3%BE%E8%97%9D%E8%A1%93%E9%81%8B%E5%8B%95</t>
-  </si>
-  <si>
-    <t>裝飾藝術運動</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Arturo_Di_Modica</t>
-  </si>
-  <si>
-    <t>en-Arturo Di Modica</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97%E9%93%9C%E7%89%9B</t>
-  </si>
-  <si>
-    <t>华尔街铜牛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E5%B8%82</t>
-  </si>
-  <si>
-    <t>牛市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B2%8D%E6%9E%97%E6%A0%BC%E6%9E%97%E5%85%AC%E5%9B%AD</t>
-  </si>
-  <si>
-    <t>鲍林格林公园</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A7%E9%80%9A%E9%8A%80%E8%A1%8C</t>
-  </si>
-  <si>
-    <t>美國大通銀行</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%87%91%E8%9E%8D%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>美國金融博物館</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97%E9%8A%80%E8%A1%8C</t>
-  </si>
-  <si>
-    <t>德意志銀行</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E6%97%97%E9%8A%80%E8%A1%8C</t>
-  </si>
-  <si>
-    <t>花旗銀行</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD%E8%A1%97</t>
-  </si>
-  <si>
-    <t>商業街</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%B0%8F%E5%9E%8B%E4%BC%81%E6%A5%AD</t>
-  </si>
-  <si>
-    <t>中小型企業</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E5%AF%8C500%E5%BC%BA</t>
-  </si>
-  <si>
-    <t>财富500强</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>精英主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93</t>
-  </si>
-  <si>
-    <t>貿易</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>資本主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%96%B0</t>
-  </si>
-  <si>
-    <t>創新</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>殖民主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E7%88%BE%E6%9B%BC%C2%B7%E6%A2%85%E7%88%BE%E7%B6%AD%E7%88%BE</t>
-  </si>
-  <si>
-    <t>赫爾曼·梅爾維爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E7%A6%8F%E5%85%8B%E7%B4%8D</t>
-  </si>
-  <si>
-    <t>威廉·福克納</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>猶太人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1987%E5%B9%B4%E7%94%B5%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>1987年电影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97_(1987%E5%B9%B4%E7%94%B5%E5%BD%B1)</t>
-  </si>
-  <si>
-    <t>华尔街 (1987年电影)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E7%B7%9A%E4%BA%A4%E6%98%93</t>
-  </si>
-  <si>
-    <t>內線交易</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E9%9B%BB%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>2010年電影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%88%BE%E8%A1%97%EF%BC%9A%E9%87%91%E9%8C%A2%E8%90%AC%E6%AD%B2</t>
-  </si>
-  <si>
-    <t>華爾街：金錢萬歲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A1%E8%B2%B8%E5%8D%B1%E6%A9%9F</t>
-  </si>
-  <si>
-    <t>次貸危機</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E8%B5%84%E9%93%B6%E8%A1%8C</t>
-  </si>
-  <si>
-    <t>投资银行</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E8%89%A6%E5%A5%87%E8%88%AA%E8%A8%98</t>
-  </si>
-  <si>
-    <t>星艦奇航記</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%91%9E%E5%90%89%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>佛瑞吉人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B5%82%E6%A5%B5%E8%AD%A6%E6%8E%A23</t>
-  </si>
-  <si>
-    <t>終極警探3</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E6%8B%89</t>
-  </si>
-  <si>
-    <t>哥斯拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2013%E5%B9%B4%E7%94%B5%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>2013年电影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97%E4%B9%8B%E7%8B%BC</t>
-  </si>
-  <si>
-    <t>华尔街之狼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%9C%B0%E9%90%B5</t>
-  </si>
-  <si>
-    <t>紐約地鐵</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/IRT%E7%99%BE%E8%80%81%E5%8C%AF%EF%BC%8D%E7%AC%AC%E4%B8%83%E5%A4%A7%E9%81%93%E7%B7%9A</t>
-  </si>
-  <si>
-    <t>IRT百老匯－第七大道線</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/IRT%E8%90%8A%E8%BE%9B%E9%A0%93%E5%A4%A7%E9%81%93%E7%B7%9A</t>
-  </si>
-  <si>
-    <t>IRT萊辛頓大道線</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>英国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6</t>
-  </si>
-  <si>
-    <t>倫敦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E5%B8%82</t>
-  </si>
-  <si>
-    <t>倫敦市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC</t>
-  </si>
-  <si>
-    <t>東京</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
-  </si>
-  <si>
-    <t>香港</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%92%B0</t>
-  </si>
-  <si>
-    <t>中環</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>中华人民共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>上海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
-  </si>
-  <si>
-    <t>新加坡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%95%99%E8%82%B2%E5%9F%8E</t>
-  </si>
-  <si>
-    <t>香港教育城</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%B4%90%E7%B4%84%E5%B8%82%E5%B8%82%E5%8D%80%E4%B8%BB%E8%A6%81%E5%A4%A7%E9%81%93</t>
-  </si>
-  <si>
-    <t>Template talk-紐約市市區主要大道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%8D%81%E5%A4%A7%E9%81%93</t>
-  </si>
-  <si>
-    <t>第十大道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B9%9D%E5%A4%A7%E9%81%93</t>
-  </si>
-  <si>
-    <t>第九大道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%85%AB%E5%A4%A7%E9%81%93_(%E6%9B%BC%E5%93%88%E9%A1%BF)</t>
-  </si>
-  <si>
-    <t>第八大道 (曼哈顿)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%83%E5%A4%A7%E9%81%93</t>
-  </si>
-  <si>
-    <t>第七大道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%A0%B1%E5%BB%A3%E5%A0%B4</t>
-  </si>
-  <si>
-    <t>時報廣場</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%85%AD%E5%A4%A7%E9%81%93</t>
-  </si>
-  <si>
-    <t>第六大道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%94%E5%A4%A7%E9%81%93</t>
-  </si>
-  <si>
-    <t>第五大道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E8%BF%AA%E9%81%9C%E5%A4%A7%E9%81%93</t>
-  </si>
-  <si>
-    <t>麥迪遜大道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%9B%AD%E5%A4%A7%E9%81%93</t>
-  </si>
-  <si>
-    <t>公园大道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E8%BE%9B%E9%A1%BF%E5%A4%A7%E9%81%93</t>
-  </si>
-  <si>
-    <t>莱辛顿大道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%A4%A7%E9%81%93</t>
-  </si>
-  <si>
-    <t>第三大道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E5%A4%A7%E9%81%93</t>
-  </si>
-  <si>
-    <t>第二大道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E5%A4%A7%E9%81%93</t>
-  </si>
-  <si>
-    <t>第一大道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A1%BF%E4%B8%8B%E5%9F%8E</t>
-  </si>
-  <si>
-    <t>曼哈顿下城</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E7%99%BE%E8%80%81%E6%B1%87%E5%A4%A7%E8%A1%97</t>
-  </si>
-  <si>
-    <t>东百老汇大街</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/14%E8%A1%97</t>
-  </si>
-  <si>
-    <t>14街</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/23%E8%A1%97_(%E6%9B%BC%E5%93%88%E9%A0%93)</t>
-  </si>
-  <si>
-    <t>23街 (曼哈頓)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/34%E8%A1%97</t>
-  </si>
-  <si>
-    <t>34街</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/42%E8%A1%97_(%E6%9B%BC%E5%93%88%E9%A0%93)</t>
-  </si>
-  <si>
-    <t>42街 (曼哈頓)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC52%E8%A1%97_(%E6%9B%BC%E5%93%88%E9%A1%BF)</t>
-  </si>
-  <si>
-    <t>第52街 (曼哈顿)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/59%E8%A1%97</t>
-  </si>
-  <si>
-    <t>59街</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A1%BF%E4%B8%8A%E5%9F%8E</t>
-  </si>
-  <si>
-    <t>曼哈顿上城</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/72%E8%A1%97</t>
-  </si>
-  <si>
-    <t>72街</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/110%E8%A1%97</t>
-  </si>
-  <si>
-    <t>110街</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美国历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国历史年表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>前哥倫布時期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>十三殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
-  </si>
-  <si>
-    <t>美国独立宣言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>美国革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
-  </si>
-  <si>
-    <t>美國領土變遷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
-  </si>
-  <si>
-    <t>美国内战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%87%8D%E5%BB%BA%E6%97%B6%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>美国重建时期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
-  </si>
-  <si>
-    <t>大萧条</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
-  </si>
-  <si>
-    <t>冷战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>朝鲜战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%B0%91%E6%9D%83%E8%BF%90%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>非裔美国人民权运动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>越南战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>波斯灣戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>反恐战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
-  </si>
-  <si>
-    <t>金融海嘯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
-  </si>
-  <si>
-    <t>美国人口</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>美国经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%80%BA%E5%8A%A1%E4%B8%8A%E9%99%90%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美国债务上限历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9B%E4%BA%8B</t>
-  </si>
-  <si>
-    <t>美国军事</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
-  </si>
-  <si>
-    <t>美國郵政署</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
-  </si>
-  <si>
-    <t>美国科学技术</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>美国联邦政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%BE%8B</t>
-  </si>
-  <si>
-    <t>美国法律</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
-  </si>
-  <si>
-    <t>美国宪法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国权利法案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
-  </si>
-  <si>
-    <t>權力分立</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>立法机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>美国国会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国众议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国参议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国副总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國聯邦機構列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>美国总统办事机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
-  </si>
-  <si>
-    <t>美国内阁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E8%A1%8C%E6%94%BF%E9%83%A8%E9%97%A8</t>
-  </si>
-  <si>
-    <t>美国联邦行政部门</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
-  </si>
-  <si>
-    <t>美國政府獨立機構</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国最高法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦上诉法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E5%8C%BA%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦地区法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国司法部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E8%B0%83%E6%9F%A5%E5%B1%80</t>
-  </si>
-  <si>
-    <t>联邦调查局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>美國情報體系</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
-  </si>
-  <si>
-    <t>國家情報總監</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
-  </si>
-  <si>
-    <t>中央情报局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
-  </si>
-  <si>
-    <t>國防情報局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美國國家地理空間情報局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美国国家侦察局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美国国家安全局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国空军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国陆军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%99%86%E6%88%98%E9%98%9F</t>
-  </si>
-  <si>
-    <t>美国海军陆战队</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国海军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%B2%B8%E8%AD%A6%E5%8D%AB%E9%98%9F</t>
-  </si>
-  <si>
-    <t>美国海岸警卫队</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
-  </si>
-  <si>
-    <t>美國國民警衛隊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>美国政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
-  </si>
-  <si>
-    <t>美國選舉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>美国选举人团</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>美国行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A</t>
-  </si>
-  <si>
-    <t>美国政党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>民主党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>共和党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>第三党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>美國第51州</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
-  </si>
-  <si>
-    <t>en-Political status of Puerto Rico</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>紅州與藍州</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Purple_America</t>
-  </si>
-  <si>
-    <t>en-Purple America</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%A7%86%E5%A4%A7%E5%8F%94</t>
-  </si>
-  <si>
-    <t>山姆大叔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>美国地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%BF_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>县 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B7%B4%E6%8B%89%E5%A5%91%E4%BA%9A%E5%B1%B1%E8%84%89</t>
-  </si>
-  <si>
-    <t>阿巴拉契亚山脉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
-  </si>
-  <si>
-    <t>洛磯山脈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国国家公园列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>美國地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
-  </si>
-  <si>
-    <t>新英格蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>中大西洋地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國南部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國中西部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
-  </si>
-  <si>
-    <t>北美大平原</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國西北部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國西南部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国河流列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>密西西比河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>密苏里河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>科罗拉多河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
-  </si>
-  <si>
-    <t>美国州份</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%9F</t>
-  </si>
-  <si>
-    <t>美国领土</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Agriculture_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Agriculture in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
-  </si>
-  <si>
-    <t>美國夢</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
-  </si>
-  <si>
-    <t>en-United States federal budget</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>聯邦儲備系統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國的工會</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Social programs in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
-  </si>
-  <si>
-    <t>美國國債</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Taxation in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
-  </si>
-  <si>
-    <t>美國交通</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国机场列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
-  </si>
-  <si>
-    <t>美國國道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>州際公路系統</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Unemployment in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
-  </si>
-  <si>
-    <t>美元</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國社會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
-  </si>
-  <si>
-    <t>美国犯罪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>美国教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E4%BF%9D%E5%81%A5</t>
-  </si>
-  <si>
-    <t>美国卫生保健</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9B%91%E7%A6%81%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>美国监禁制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%AD%E8%A8%80</t>
-  </si>
-  <si>
-    <t>美国语言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8B%B1%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>美国英语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>美国的西班牙语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AA%92%E4%BD%93</t>
-  </si>
-  <si>
-    <t>美国媒体</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>美国人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
-  </si>
-  <si>
-    <t>美国节日</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%97%E6%95%99</t>
-  </si>
-  <si>
-    <t>美国宗教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
-  </si>
-  <si>
-    <t>美國社會階層</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
-  </si>
-  <si>
-    <t>美国梦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
-  </si>
-  <si>
-    <t>美国体育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
-  </si>
-  <si>
-    <t>美國LGBT權益</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
-  </si>
-  <si>
-    <t>美国同性婚姻</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%B6%E5%BA%AD%E7%BB%93%E6%9E%84</t>
-  </si>
-  <si>
-    <t>美国家庭结构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>美国文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>美国文学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%8E%B1%E5%A7%86%E6%96%87%E8%89%BA%E5%A4%8D%E5%85%B4</t>
-  </si>
-  <si>
-    <t>哈莱姆文艺复兴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%AA%8C%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>超验主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9E%AE%E6%8E%89%E7%9A%84%E4%B8%80%E4%BB%A3</t>
-  </si>
-  <si>
-    <t>垮掉的一代</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%BB%BA%E7%AD%91</t>
-  </si>
-  <si>
-    <t>美国建筑</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>美國飲食文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>美国国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>美国音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E9%97%B4%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>美国民间音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%81%E8%A1%8C%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>美国流行音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E4%B9%90</t>
-  </si>
-  <si>
-    <t>爵士乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
-  </si>
-  <si>
-    <t>美國電視</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>美国电影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%8E%B1%E5%9D%9E</t>
-  </si>
-  <si>
-    <t>好莱坞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>抽象表現主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
-  </si>
-  <si>
-    <t>美国社会问题</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B9%B3%E6%9D%83%E8%A1%8C%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>美国平权行动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BE%8B%E5%A4%96%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>美国例外主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%BE%8E%E6%83%85%E7%BB%AA</t>
-  </si>
-  <si>
-    <t>反美情绪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>美国死刑制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>美國槍支政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
-  </si>
-  <si>
-    <t>美國槍枝暴力問題</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
-  </si>
-  <si>
-    <t>美國醫療改革</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
-  </si>
-  <si>
-    <t>美国人权</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
-  </si>
-  <si>
-    <t>美墨邊界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
-  </si>
-  <si>
-    <t>美国的肥胖问题</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%8D%E6%97%8F%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>美国种族主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>國立國會圖書館</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -2046,7 +2046,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I280"/>
+  <dimension ref="A1:I282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4275,7 +4275,7 @@
         <v>154</v>
       </c>
       <c r="G77" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H77" t="s">
         <v>4</v>
@@ -6273,7 +6273,7 @@
         <v>291</v>
       </c>
       <c r="F146" t="s">
-        <v>292</v>
+        <v>22</v>
       </c>
       <c r="G146" t="n">
         <v>3</v>
@@ -6299,10 +6299,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>292</v>
+      </c>
+      <c r="F147" t="s">
         <v>293</v>
-      </c>
-      <c r="F147" t="s">
-        <v>294</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6328,10 +6328,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>294</v>
+      </c>
+      <c r="F148" t="s">
         <v>295</v>
-      </c>
-      <c r="F148" t="s">
-        <v>296</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -6357,10 +6357,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>296</v>
+      </c>
+      <c r="F149" t="s">
         <v>297</v>
-      </c>
-      <c r="F149" t="s">
-        <v>298</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6386,10 +6386,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>298</v>
+      </c>
+      <c r="F150" t="s">
         <v>299</v>
-      </c>
-      <c r="F150" t="s">
-        <v>300</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6415,10 +6415,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>300</v>
+      </c>
+      <c r="F151" t="s">
         <v>301</v>
-      </c>
-      <c r="F151" t="s">
-        <v>302</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6444,10 +6444,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>302</v>
+      </c>
+      <c r="F152" t="s">
         <v>303</v>
-      </c>
-      <c r="F152" t="s">
-        <v>304</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -6473,10 +6473,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>304</v>
+      </c>
+      <c r="F153" t="s">
         <v>305</v>
-      </c>
-      <c r="F153" t="s">
-        <v>306</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6502,10 +6502,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>306</v>
+      </c>
+      <c r="F154" t="s">
         <v>307</v>
-      </c>
-      <c r="F154" t="s">
-        <v>308</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6531,10 +6531,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>308</v>
+      </c>
+      <c r="F155" t="s">
         <v>309</v>
-      </c>
-      <c r="F155" t="s">
-        <v>310</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6560,10 +6560,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>310</v>
+      </c>
+      <c r="F156" t="s">
         <v>311</v>
-      </c>
-      <c r="F156" t="s">
-        <v>312</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6589,10 +6589,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>312</v>
+      </c>
+      <c r="F157" t="s">
         <v>313</v>
-      </c>
-      <c r="F157" t="s">
-        <v>314</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6618,10 +6618,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>314</v>
+      </c>
+      <c r="F158" t="s">
         <v>315</v>
-      </c>
-      <c r="F158" t="s">
-        <v>316</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6647,10 +6647,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>316</v>
+      </c>
+      <c r="F159" t="s">
         <v>317</v>
-      </c>
-      <c r="F159" t="s">
-        <v>318</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6676,10 +6676,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>318</v>
+      </c>
+      <c r="F160" t="s">
         <v>319</v>
-      </c>
-      <c r="F160" t="s">
-        <v>320</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6705,10 +6705,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>320</v>
+      </c>
+      <c r="F161" t="s">
         <v>321</v>
-      </c>
-      <c r="F161" t="s">
-        <v>322</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6734,10 +6734,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>322</v>
+      </c>
+      <c r="F162" t="s">
         <v>323</v>
-      </c>
-      <c r="F162" t="s">
-        <v>324</v>
       </c>
       <c r="G162" t="n">
         <v>3</v>
@@ -6763,10 +6763,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>324</v>
+      </c>
+      <c r="F163" t="s">
         <v>325</v>
-      </c>
-      <c r="F163" t="s">
-        <v>326</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6792,10 +6792,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>326</v>
+      </c>
+      <c r="F164" t="s">
         <v>327</v>
-      </c>
-      <c r="F164" t="s">
-        <v>328</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6821,10 +6821,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>328</v>
+      </c>
+      <c r="F165" t="s">
         <v>329</v>
-      </c>
-      <c r="F165" t="s">
-        <v>330</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6850,10 +6850,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>330</v>
+      </c>
+      <c r="F166" t="s">
         <v>331</v>
-      </c>
-      <c r="F166" t="s">
-        <v>332</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6879,10 +6879,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>332</v>
+      </c>
+      <c r="F167" t="s">
         <v>333</v>
-      </c>
-      <c r="F167" t="s">
-        <v>334</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6908,10 +6908,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>334</v>
+      </c>
+      <c r="F168" t="s">
         <v>335</v>
-      </c>
-      <c r="F168" t="s">
-        <v>336</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6937,10 +6937,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>336</v>
+      </c>
+      <c r="F169" t="s">
         <v>337</v>
-      </c>
-      <c r="F169" t="s">
-        <v>338</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6966,10 +6966,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>338</v>
+      </c>
+      <c r="F170" t="s">
         <v>339</v>
-      </c>
-      <c r="F170" t="s">
-        <v>340</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6995,10 +6995,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>340</v>
+      </c>
+      <c r="F171" t="s">
         <v>341</v>
-      </c>
-      <c r="F171" t="s">
-        <v>342</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7024,10 +7024,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F172" t="s">
-        <v>344</v>
+        <v>70</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7053,10 +7053,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F173" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G173" t="n">
         <v>3</v>
@@ -7082,10 +7082,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F174" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7111,10 +7111,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F175" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7140,10 +7140,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F176" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7169,10 +7169,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F177" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7198,10 +7198,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F178" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7227,10 +7227,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F179" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7256,10 +7256,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F180" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7285,10 +7285,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F181" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7314,10 +7314,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F182" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7343,10 +7343,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F183" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -7372,10 +7372,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F184" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7401,10 +7401,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F185" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7430,10 +7430,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F186" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G186" t="n">
         <v>6</v>
@@ -7459,10 +7459,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F187" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -7488,10 +7488,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F188" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7517,10 +7517,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F189" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7546,10 +7546,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F190" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7575,10 +7575,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F191" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7604,10 +7604,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F192" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7633,10 +7633,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F193" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7662,10 +7662,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F194" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7691,10 +7691,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F195" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7720,10 +7720,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F196" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7749,10 +7749,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F197" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7778,10 +7778,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F198" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7807,10 +7807,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F199" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G199" t="n">
         <v>3</v>
@@ -7836,10 +7836,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F200" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7865,10 +7865,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F201" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7894,10 +7894,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F202" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7923,10 +7923,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F203" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7952,10 +7952,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F204" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G204" t="n">
         <v>3</v>
@@ -7981,10 +7981,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F205" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8010,10 +8010,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F206" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8039,10 +8039,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F207" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8068,10 +8068,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F208" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8097,10 +8097,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F209" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8126,10 +8126,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F210" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8155,10 +8155,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F211" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8184,10 +8184,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F212" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8213,10 +8213,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F213" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8242,10 +8242,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F214" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8271,10 +8271,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F215" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8300,10 +8300,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F216" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8329,10 +8329,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F217" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
@@ -8358,10 +8358,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F218" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8387,10 +8387,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F219" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8416,10 +8416,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F220" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8445,10 +8445,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F221" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8474,10 +8474,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F222" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8503,10 +8503,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F223" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8532,10 +8532,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F224" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8561,10 +8561,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F225" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8590,10 +8590,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F226" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G226" t="n">
         <v>4</v>
@@ -8619,10 +8619,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F227" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8648,10 +8648,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F228" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8677,10 +8677,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F229" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8706,10 +8706,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F230" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8735,10 +8735,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F231" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8764,10 +8764,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F232" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G232" t="n">
         <v>3</v>
@@ -8793,10 +8793,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F233" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8822,10 +8822,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F234" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G234" t="n">
         <v>3</v>
@@ -8851,10 +8851,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F235" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8880,10 +8880,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F236" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8909,10 +8909,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F237" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8938,10 +8938,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F238" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8967,10 +8967,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F239" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8996,10 +8996,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F240" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G240" t="n">
         <v>5</v>
@@ -9025,10 +9025,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F241" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G241" t="n">
         <v>3</v>
@@ -9054,10 +9054,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F242" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9083,10 +9083,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F243" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9112,10 +9112,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F244" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9141,10 +9141,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F245" t="s">
-        <v>490</v>
+        <v>436</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9170,10 +9170,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F246" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9199,10 +9199,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F247" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9228,10 +9228,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F248" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9257,10 +9257,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F249" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9286,10 +9286,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F250" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G250" t="n">
         <v>7</v>
@@ -9315,10 +9315,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F251" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9344,10 +9344,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F252" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9373,10 +9373,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F253" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9402,10 +9402,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F254" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9431,10 +9431,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F255" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9460,10 +9460,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F256" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9489,10 +9489,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F257" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9518,10 +9518,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F258" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G258" t="n">
         <v>4</v>
@@ -9547,10 +9547,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F259" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9576,10 +9576,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F260" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9605,10 +9605,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F261" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9634,10 +9634,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F262" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9663,10 +9663,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F263" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G263" t="n">
         <v>4</v>
@@ -9692,10 +9692,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F264" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9721,10 +9721,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F265" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9750,10 +9750,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F266" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G266" t="n">
         <v>2</v>
@@ -9779,10 +9779,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F267" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9808,10 +9808,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F268" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9837,10 +9837,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F269" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9866,10 +9866,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F270" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -9895,10 +9895,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F271" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -9924,10 +9924,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F272" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -9953,10 +9953,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F273" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -9982,10 +9982,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F274" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G274" t="n">
         <v>2</v>
@@ -10011,10 +10011,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F275" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10040,10 +10040,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F276" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10069,10 +10069,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F277" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10098,10 +10098,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F278" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G278" t="n">
         <v>3</v>
@@ -10127,10 +10127,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F279" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10156,18 +10156,76 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
+        <v>556</v>
+      </c>
+      <c r="F280" t="s">
+        <v>557</v>
+      </c>
+      <c r="G280" t="n">
+        <v>1</v>
+      </c>
+      <c r="H280" t="s">
+        <v>4</v>
+      </c>
+      <c r="I280" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="s">
+        <v>0</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1</v>
+      </c>
+      <c r="D281" t="n">
+        <v>280</v>
+      </c>
+      <c r="E281" t="s">
+        <v>558</v>
+      </c>
+      <c r="F281" t="s">
         <v>559</v>
       </c>
-      <c r="F280" t="s">
+      <c r="G281" t="n">
+        <v>5</v>
+      </c>
+      <c r="H281" t="s">
+        <v>4</v>
+      </c>
+      <c r="I281" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="s">
+        <v>0</v>
+      </c>
+      <c r="C282" t="s">
+        <v>1</v>
+      </c>
+      <c r="D282" t="n">
+        <v>281</v>
+      </c>
+      <c r="E282" t="s">
+        <v>558</v>
+      </c>
+      <c r="F282" t="s">
         <v>560</v>
       </c>
-      <c r="G280" t="n">
-        <v>1</v>
-      </c>
-      <c r="H280" t="s">
-        <v>4</v>
-      </c>
-      <c r="I280" t="n">
+      <c r="G282" t="n">
+        <v>1</v>
+      </c>
+      <c r="H282" t="s">
+        <v>4</v>
+      </c>
+      <c r="I282" t="n">
         <v>3</v>
       </c>
     </row>
